--- a/data/input/static/base_entitydetails.xlsx
+++ b/data/input/static/base_entitydetails.xlsx
@@ -24656,7 +24656,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BB1369D-DA97-438B-9F54-3DE819DAB09B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C565E78-7103-46A8-976E-92E04C9CB78F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data/input/static/base_entitydetails.xlsx
+++ b/data/input/static/base_entitydetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalberg\Documents\GitHub\covid19_vaccination_data\data\_input\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/brooksd_who_int/Documents/Documents/GitHub/covid19_vaccination_analysis/data/input/static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8710AE6-D538-45B5-842D-E8C55DE7D070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A8710AE6-D538-45B5-842D-E8C55DE7D070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0DDFED6-4F76-417B-AA37-F634C848DC64}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6687" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6434" uniqueCount="952">
   <si>
     <t>DESCRIPTION</t>
   </si>
@@ -2882,13 +2882,7 @@
     <t>Svalbard</t>
   </si>
   <si>
-    <t>CSC</t>
-  </si>
-  <si>
     <t>GAVI</t>
-  </si>
-  <si>
-    <t>Concerted support country</t>
   </si>
   <si>
     <t>Immediate focus</t>
@@ -3440,10 +3434,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -3464,12 +3455,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDAEFCD1-0AA6-4172-B33E-34D8AC535939}" name="Table1" displayName="Table1" ref="A1:AE253" totalsRowShown="0">
-  <autoFilter ref="A1:AE253" xr:uid="{BDAEFCD1-0AA6-4172-B33E-34D8AC535939}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BDAEFCD1-0AA6-4172-B33E-34D8AC535939}" name="Table1" displayName="Table1" ref="A1:AD253" totalsRowShown="0">
+  <autoFilter ref="A1:AD253" xr:uid="{BDAEFCD1-0AA6-4172-B33E-34D8AC535939}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB253">
     <sortCondition ref="B1:B253"/>
   </sortState>
-  <tableColumns count="31">
+  <tableColumns count="30">
     <tableColumn id="1" xr3:uid="{ECB606AA-E1B1-4DC9-8B75-41AC4091E622}" name="DESCRIPTION"/>
     <tableColumn id="2" xr3:uid="{B0BFB828-C7CC-4B38-9588-FF8A4BA4C579}" name="CODE"/>
     <tableColumn id="3" xr3:uid="{5E603127-6FE4-4E2F-A814-F5740E6B3E6E}" name="NAMEWORKEN"/>
@@ -3498,7 +3489,6 @@
     <tableColumn id="26" xr3:uid="{C1909EDA-3481-4C77-BF0B-A6F301A720C7}" name="COVAX"/>
     <tableColumn id="27" xr3:uid="{61D1E39C-ED9F-4513-9600-0D47E90528DF}" name="ENTITYTYPE"/>
     <tableColumn id="28" xr3:uid="{71B27AB3-D1EC-4BC5-B6A2-B135C326FB37}" name="STARTDATE"/>
-    <tableColumn id="29" xr3:uid="{8AC5D753-B6A4-4758-B982-6D0E676C3B1F}" name="CSC" dataDxfId="2"/>
     <tableColumn id="31" xr3:uid="{CB77B9E2-2F83-4960-9E69-E562B7751F02}" name="IFC" dataDxfId="1"/>
     <tableColumn id="30" xr3:uid="{32960837-E7F2-46B8-844F-1B04572E81E5}" name="GAVI" dataDxfId="0"/>
   </tableColumns>
@@ -3803,11 +3793,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE253"/>
+  <dimension ref="A1:AD253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M216" workbookViewId="0">
-      <selection activeCell="X231" sqref="X231:Y231"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3836,7 +3824,7 @@
     <col min="28" max="28" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3922,16 +3910,13 @@
         <v>27</v>
       </c>
       <c r="AC1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD1" t="s">
         <v>947</v>
       </c>
-      <c r="AD1" t="s">
-        <v>951</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>504</v>
       </c>
@@ -3987,16 +3972,13 @@
         <v>162</v>
       </c>
       <c r="AC2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD2" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>907</v>
       </c>
@@ -4079,16 +4061,13 @@
         <v>79</v>
       </c>
       <c r="AC3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD3" t="s">
         <v>950</v>
       </c>
-      <c r="AE3" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>880</v>
       </c>
@@ -4171,16 +4150,13 @@
         <v>47</v>
       </c>
       <c r="AC4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD4" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>303</v>
       </c>
@@ -4248,16 +4224,13 @@
         <v>305</v>
       </c>
       <c r="AC5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD5" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>439</v>
       </c>
@@ -4337,16 +4310,13 @@
         <v>407</v>
       </c>
       <c r="AC6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD6" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>649</v>
       </c>
@@ -4426,16 +4396,13 @@
         <v>652</v>
       </c>
       <c r="AC7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD7" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>676</v>
       </c>
@@ -4485,16 +4452,13 @@
         <v>79</v>
       </c>
       <c r="AC8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD8" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -4574,16 +4538,13 @@
         <v>89</v>
       </c>
       <c r="AC9" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD9" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>702</v>
       </c>
@@ -4663,16 +4624,13 @@
         <v>79</v>
       </c>
       <c r="AC10" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD10" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>818</v>
       </c>
@@ -4752,16 +4710,13 @@
         <v>138</v>
       </c>
       <c r="AC11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD11" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>789</v>
       </c>
@@ -4832,16 +4787,13 @@
         <v>79</v>
       </c>
       <c r="AC12" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD12" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>325</v>
       </c>
@@ -4921,16 +4873,13 @@
         <v>329</v>
       </c>
       <c r="AC13" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD13" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>191</v>
       </c>
@@ -5010,16 +4959,13 @@
         <v>79</v>
       </c>
       <c r="AC14" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD14" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>715</v>
       </c>
@@ -5099,16 +5045,13 @@
         <v>79</v>
       </c>
       <c r="AC15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD15" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>575</v>
       </c>
@@ -5188,16 +5131,13 @@
         <v>578</v>
       </c>
       <c r="AC16" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD16" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>859</v>
       </c>
@@ -5279,14 +5219,11 @@
       <c r="AB17" t="s">
         <v>79</v>
       </c>
-      <c r="AC17" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD17" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>605</v>
       </c>
@@ -5366,16 +5303,13 @@
         <v>79</v>
       </c>
       <c r="AC18" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD18" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>261</v>
       </c>
@@ -5458,16 +5392,13 @@
         <v>79</v>
       </c>
       <c r="AC19" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD19" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>203</v>
       </c>
@@ -5550,16 +5481,13 @@
         <v>209</v>
       </c>
       <c r="AC20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD20" t="s">
         <v>950</v>
       </c>
-      <c r="AE20" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>886</v>
       </c>
@@ -5642,16 +5570,13 @@
         <v>79</v>
       </c>
       <c r="AC21" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD21" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>128</v>
       </c>
@@ -5731,16 +5656,13 @@
         <v>138</v>
       </c>
       <c r="AC22" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD22" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>607</v>
       </c>
@@ -5820,16 +5742,13 @@
         <v>89</v>
       </c>
       <c r="AC23" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD23" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -5909,16 +5828,13 @@
         <v>79</v>
       </c>
       <c r="AC24" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD24" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>473</v>
       </c>
@@ -5998,16 +5914,13 @@
         <v>437</v>
       </c>
       <c r="AC25" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD25" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>591</v>
       </c>
@@ -6087,16 +6000,13 @@
         <v>138</v>
       </c>
       <c r="AC26" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD26" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -6176,16 +6086,13 @@
         <v>452</v>
       </c>
       <c r="AC27" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD27" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>457</v>
       </c>
@@ -6256,16 +6163,13 @@
         <v>242</v>
       </c>
       <c r="AC28" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD28" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>418</v>
       </c>
@@ -6345,16 +6249,13 @@
         <v>79</v>
       </c>
       <c r="AC29" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD29" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>297</v>
       </c>
@@ -6386,16 +6287,13 @@
         <v>76</v>
       </c>
       <c r="AC30" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD30" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>782</v>
       </c>
@@ -6475,16 +6373,13 @@
         <v>79</v>
       </c>
       <c r="AC31" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD31" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>791</v>
       </c>
@@ -6564,16 +6459,13 @@
         <v>79</v>
       </c>
       <c r="AC32" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD32" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>553</v>
       </c>
@@ -6653,16 +6545,13 @@
         <v>556</v>
       </c>
       <c r="AC33" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD33" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>49</v>
       </c>
@@ -6745,16 +6634,13 @@
         <v>62</v>
       </c>
       <c r="AC34" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD34" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>343</v>
       </c>
@@ -6834,16 +6720,13 @@
         <v>47</v>
       </c>
       <c r="AC35" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD35" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>744</v>
       </c>
@@ -6925,14 +6808,11 @@
       <c r="AB36" t="s">
         <v>79</v>
       </c>
-      <c r="AC36" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD36" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>838</v>
       </c>
@@ -7012,16 +6892,13 @@
         <v>79</v>
       </c>
       <c r="AC37" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD37" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -7059,16 +6936,13 @@
         <v>147</v>
       </c>
       <c r="AC38" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD38" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>795</v>
       </c>
@@ -7148,16 +7022,13 @@
         <v>79</v>
       </c>
       <c r="AC39" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD39" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>442</v>
       </c>
@@ -7237,16 +7108,13 @@
         <v>79</v>
       </c>
       <c r="AC40" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD40" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>415</v>
       </c>
@@ -7326,16 +7194,13 @@
         <v>79</v>
       </c>
       <c r="AC41" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD41" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>921</v>
       </c>
@@ -7414,14 +7279,11 @@
       <c r="AB42" t="s">
         <v>79</v>
       </c>
-      <c r="AC42" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD42" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>585</v>
       </c>
@@ -7500,14 +7362,11 @@
       <c r="AB43" t="s">
         <v>79</v>
       </c>
-      <c r="AC43" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD43" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>283</v>
       </c>
@@ -7590,16 +7449,13 @@
         <v>290</v>
       </c>
       <c r="AC44" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD44" t="s">
         <v>950</v>
       </c>
-      <c r="AE44" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>597</v>
       </c>
@@ -7679,16 +7535,13 @@
         <v>79</v>
       </c>
       <c r="AC45" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD45" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>479</v>
       </c>
@@ -7765,16 +7618,13 @@
         <v>482</v>
       </c>
       <c r="AC46" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD46" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>801</v>
       </c>
@@ -7854,16 +7704,13 @@
         <v>79</v>
       </c>
       <c r="AC47" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD47" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -7946,16 +7793,13 @@
         <v>79</v>
       </c>
       <c r="AC48" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD48" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>461</v>
       </c>
@@ -8035,16 +7879,13 @@
         <v>79</v>
       </c>
       <c r="AC49" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD49" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>467</v>
       </c>
@@ -8124,16 +7965,13 @@
         <v>79</v>
       </c>
       <c r="AC50" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD50" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>668</v>
       </c>
@@ -8177,16 +8015,13 @@
         <v>138</v>
       </c>
       <c r="AC51" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD51" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>483</v>
       </c>
@@ -8266,16 +8101,13 @@
         <v>79</v>
       </c>
       <c r="AC52" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD52" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>465</v>
       </c>
@@ -8310,16 +8142,13 @@
         <v>162</v>
       </c>
       <c r="AC53" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD53" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>730</v>
       </c>
@@ -8390,16 +8219,13 @@
         <v>242</v>
       </c>
       <c r="AC54" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD54" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>530</v>
       </c>
@@ -8479,16 +8305,13 @@
         <v>79</v>
       </c>
       <c r="AC55" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD55" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>656</v>
       </c>
@@ -8568,16 +8391,13 @@
         <v>660</v>
       </c>
       <c r="AC56" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD56" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>594</v>
       </c>
@@ -8618,16 +8438,13 @@
         <v>79</v>
       </c>
       <c r="AC57" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD57" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>641</v>
       </c>
@@ -8707,16 +8524,13 @@
         <v>596</v>
       </c>
       <c r="AC58" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD58" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>712</v>
       </c>
@@ -8798,14 +8612,11 @@
       <c r="AB59" t="s">
         <v>242</v>
       </c>
-      <c r="AC59" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD59" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>360</v>
       </c>
@@ -8885,16 +8696,13 @@
         <v>364</v>
       </c>
       <c r="AC60" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD60" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>291</v>
       </c>
@@ -8974,16 +8782,13 @@
         <v>79</v>
       </c>
       <c r="AC61" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD61" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE61" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>502</v>
       </c>
@@ -9063,16 +8868,13 @@
         <v>79</v>
       </c>
       <c r="AC62" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD62" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>559</v>
       </c>
@@ -9152,16 +8954,13 @@
         <v>562</v>
       </c>
       <c r="AC63" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD63" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE63" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>178</v>
       </c>
@@ -9241,16 +9040,13 @@
         <v>79</v>
       </c>
       <c r="AC64" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD64" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>929</v>
       </c>
@@ -9330,16 +9126,13 @@
         <v>79</v>
       </c>
       <c r="AC65" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD65" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE65" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>28</v>
       </c>
@@ -9422,16 +9215,13 @@
         <v>47</v>
       </c>
       <c r="AC66" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD66" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE66" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>915</v>
       </c>
@@ -9511,16 +9301,13 @@
         <v>79</v>
       </c>
       <c r="AC67" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD67" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>889</v>
       </c>
@@ -9600,16 +9387,13 @@
         <v>892</v>
       </c>
       <c r="AC68" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD68" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE68" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>513</v>
       </c>
@@ -9692,16 +9476,13 @@
         <v>79</v>
       </c>
       <c r="AC69" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD69" t="s">
         <v>950</v>
       </c>
-      <c r="AE69" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>935</v>
       </c>
@@ -9712,16 +9493,13 @@
         <v>935</v>
       </c>
       <c r="AC70" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD70" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>249</v>
       </c>
@@ -9801,16 +9579,13 @@
         <v>79</v>
       </c>
       <c r="AC71" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD71" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE71" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>493</v>
       </c>
@@ -9890,16 +9665,13 @@
         <v>79</v>
       </c>
       <c r="AC72" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD72" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE72" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>844</v>
       </c>
@@ -9979,16 +9751,13 @@
         <v>79</v>
       </c>
       <c r="AC73" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD73" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE73" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>370</v>
       </c>
@@ -10068,16 +9837,13 @@
         <v>374</v>
       </c>
       <c r="AC74" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD74" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>718</v>
       </c>
@@ -10156,14 +9922,11 @@
       <c r="AB75" t="s">
         <v>79</v>
       </c>
-      <c r="AC75" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE75" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD75" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>830</v>
       </c>
@@ -10243,16 +10006,13 @@
         <v>79</v>
       </c>
       <c r="AC76" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD76" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>163</v>
       </c>
@@ -10332,16 +10092,13 @@
         <v>170</v>
       </c>
       <c r="AC77" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD77" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>536</v>
       </c>
@@ -10421,16 +10178,13 @@
         <v>79</v>
       </c>
       <c r="AC78" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD78" t="s">
         <v>950</v>
       </c>
-      <c r="AE78" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>527</v>
       </c>
@@ -10512,14 +10266,11 @@
       <c r="AB79" t="s">
         <v>79</v>
       </c>
-      <c r="AC79" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE79" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD79" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>240</v>
       </c>
@@ -10584,16 +10335,13 @@
         <v>242</v>
       </c>
       <c r="AC80" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD80" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE80" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>692</v>
       </c>
@@ -10675,14 +10423,11 @@
       <c r="AB81" t="s">
         <v>79</v>
       </c>
-      <c r="AC81" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE81" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD81" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>918</v>
       </c>
@@ -10764,14 +10509,11 @@
       <c r="AB82" t="s">
         <v>79</v>
       </c>
-      <c r="AC82" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE82" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD82" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>925</v>
       </c>
@@ -10854,16 +10596,13 @@
         <v>928</v>
       </c>
       <c r="AC83" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD83" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>900</v>
       </c>
@@ -10943,16 +10682,13 @@
         <v>79</v>
       </c>
       <c r="AC84" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD84" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>306</v>
       </c>
@@ -11032,16 +10768,13 @@
         <v>79</v>
       </c>
       <c r="AC85" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD85" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>943</v>
       </c>
@@ -11052,16 +10785,13 @@
         <v>945</v>
       </c>
       <c r="AC86" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD86" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>897</v>
       </c>
@@ -11141,16 +10871,13 @@
         <v>79</v>
       </c>
       <c r="AC87" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD87" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE87" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>187</v>
       </c>
@@ -11212,16 +10939,13 @@
         <v>79</v>
       </c>
       <c r="AC88" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD88" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE88" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>557</v>
       </c>
@@ -11292,16 +11016,13 @@
         <v>79</v>
       </c>
       <c r="AC89" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD89" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE89" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>821</v>
       </c>
@@ -11381,16 +11102,13 @@
         <v>79</v>
       </c>
       <c r="AC90" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD90" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE90" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>680</v>
       </c>
@@ -11461,16 +11179,13 @@
         <v>79</v>
       </c>
       <c r="AC91" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD91" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE91" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>264</v>
       </c>
@@ -11550,16 +11265,13 @@
         <v>79</v>
       </c>
       <c r="AC92" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD92" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE92" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>509</v>
       </c>
@@ -11639,16 +11351,13 @@
         <v>512</v>
       </c>
       <c r="AC93" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD93" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE93" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>224</v>
       </c>
@@ -11730,14 +11439,11 @@
       <c r="AB94" t="s">
         <v>79</v>
       </c>
-      <c r="AC94" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE94" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD94" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>540</v>
       </c>
@@ -11817,16 +11523,13 @@
         <v>407</v>
       </c>
       <c r="AC95" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD95" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE95" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>376</v>
       </c>
@@ -11906,16 +11609,13 @@
         <v>79</v>
       </c>
       <c r="AC96" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD96" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -11995,16 +11695,13 @@
         <v>79</v>
       </c>
       <c r="AC97" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD97" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE97" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>793</v>
       </c>
@@ -12084,16 +11781,13 @@
         <v>79</v>
       </c>
       <c r="AC98" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD98" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE98" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>80</v>
       </c>
@@ -12173,16 +11867,13 @@
         <v>89</v>
       </c>
       <c r="AC99" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD99" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>856</v>
       </c>
@@ -12262,16 +11953,13 @@
         <v>89</v>
       </c>
       <c r="AC100" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD100" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE100" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>381</v>
       </c>
@@ -12351,16 +12039,13 @@
         <v>79</v>
       </c>
       <c r="AC101" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD101" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE101" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>619</v>
       </c>
@@ -12440,16 +12125,13 @@
         <v>407</v>
       </c>
       <c r="AC102" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD102" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE102" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>786</v>
       </c>
@@ -12529,16 +12211,13 @@
         <v>79</v>
       </c>
       <c r="AC103" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD103" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE103" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>384</v>
       </c>
@@ -12618,16 +12297,13 @@
         <v>79</v>
       </c>
       <c r="AC104" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD104" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE104" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>566</v>
       </c>
@@ -12707,16 +12383,13 @@
         <v>89</v>
       </c>
       <c r="AC105" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD105" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE105" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>913</v>
       </c>
@@ -12796,16 +12469,13 @@
         <v>79</v>
       </c>
       <c r="AC106" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD106" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE106" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>834</v>
       </c>
@@ -12885,16 +12555,13 @@
         <v>837</v>
       </c>
       <c r="AC107" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD107" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE107" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>90</v>
       </c>
@@ -12974,16 +12641,13 @@
         <v>79</v>
       </c>
       <c r="AC108" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD108" t="s">
         <v>950</v>
       </c>
-      <c r="AE108" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>182</v>
       </c>
@@ -13063,16 +12727,13 @@
         <v>186</v>
       </c>
       <c r="AC109" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD109" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE109" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>779</v>
       </c>
@@ -13155,16 +12816,13 @@
         <v>407</v>
       </c>
       <c r="AC110" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD110" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE110" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>400</v>
       </c>
@@ -13247,16 +12905,13 @@
         <v>403</v>
       </c>
       <c r="AC111" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD111" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE111" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>279</v>
       </c>
@@ -13336,16 +12991,13 @@
         <v>282</v>
       </c>
       <c r="AC112" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD112" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE112" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>807</v>
       </c>
@@ -13425,16 +13077,13 @@
         <v>79</v>
       </c>
       <c r="AC113" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD113" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE113" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>446</v>
       </c>
@@ -13514,16 +13163,13 @@
         <v>89</v>
       </c>
       <c r="AC114" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD114" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE114" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>769</v>
       </c>
@@ -13606,16 +13252,13 @@
         <v>79</v>
       </c>
       <c r="AC115" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD115" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE115" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>804</v>
       </c>
@@ -13695,16 +13338,13 @@
         <v>89</v>
       </c>
       <c r="AC116" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD116" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE116" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>321</v>
       </c>
@@ -13787,16 +13427,13 @@
         <v>324</v>
       </c>
       <c r="AC117" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD117" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE117" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>487</v>
       </c>
@@ -13876,16 +13513,13 @@
         <v>89</v>
       </c>
       <c r="AC118" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD118" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE118" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>673</v>
       </c>
@@ -13965,16 +13599,13 @@
         <v>675</v>
       </c>
       <c r="AC119" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD119" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>308</v>
       </c>
@@ -14054,16 +13685,13 @@
         <v>79</v>
       </c>
       <c r="AC120" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD120" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE120" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>412</v>
       </c>
@@ -14146,16 +13774,13 @@
         <v>79</v>
       </c>
       <c r="AC121" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD121" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>408</v>
       </c>
@@ -14235,16 +13860,13 @@
         <v>138</v>
       </c>
       <c r="AC122" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD122" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE122" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>228</v>
       </c>
@@ -14324,16 +13946,13 @@
         <v>79</v>
       </c>
       <c r="AC123" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD123" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE123" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>424</v>
       </c>
@@ -14413,16 +14032,13 @@
         <v>138</v>
       </c>
       <c r="AC124" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD124" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE124" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>635</v>
       </c>
@@ -14490,16 +14106,13 @@
         <v>79</v>
       </c>
       <c r="AC125" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD125" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE125" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>895</v>
       </c>
@@ -14579,16 +14192,13 @@
         <v>89</v>
       </c>
       <c r="AC126" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD126" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE126" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>430</v>
       </c>
@@ -14668,16 +14278,13 @@
         <v>79</v>
       </c>
       <c r="AC127" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD127" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE127" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>883</v>
       </c>
@@ -14757,16 +14364,13 @@
         <v>138</v>
       </c>
       <c r="AC128" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD128" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE128" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>686</v>
       </c>
@@ -14848,14 +14452,11 @@
       <c r="AB129" t="s">
         <v>407</v>
       </c>
-      <c r="AC129" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE129" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD129" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>175</v>
       </c>
@@ -14935,16 +14536,13 @@
         <v>79</v>
       </c>
       <c r="AC130" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD130" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>826</v>
       </c>
@@ -15024,16 +14622,13 @@
         <v>79</v>
       </c>
       <c r="AC131" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD131" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE131" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>840</v>
       </c>
@@ -15113,16 +14708,13 @@
         <v>843</v>
       </c>
       <c r="AC132" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD132" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE132" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -15202,16 +14794,13 @@
         <v>259</v>
       </c>
       <c r="AC133" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD133" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE133" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>773</v>
       </c>
@@ -15293,14 +14882,11 @@
       <c r="AB134" t="s">
         <v>79</v>
       </c>
-      <c r="AC134" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE134" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD134" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>696</v>
       </c>
@@ -15380,16 +14966,13 @@
         <v>407</v>
       </c>
       <c r="AC135" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD135" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE135" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>349</v>
       </c>
@@ -15472,16 +15055,13 @@
         <v>352</v>
       </c>
       <c r="AC136" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD136" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>644</v>
       </c>
@@ -15561,16 +15141,13 @@
         <v>438</v>
       </c>
       <c r="AC137" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD137" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE137" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>761</v>
       </c>
@@ -15650,16 +15227,13 @@
         <v>763</v>
       </c>
       <c r="AC138" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD138" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE138" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>631</v>
       </c>
@@ -15730,16 +15304,13 @@
         <v>89</v>
       </c>
       <c r="AC139" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD139" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE139" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>110</v>
       </c>
@@ -15822,16 +15393,13 @@
         <v>79</v>
       </c>
       <c r="AC140" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD140" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE140" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>849</v>
       </c>
@@ -15914,16 +15482,13 @@
         <v>79</v>
       </c>
       <c r="AC141" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD141" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE141" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>569</v>
       </c>
@@ -15988,16 +15553,13 @@
         <v>302</v>
       </c>
       <c r="AC142" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD142" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE142" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>299</v>
       </c>
@@ -16062,16 +15624,13 @@
         <v>302</v>
       </c>
       <c r="AC143" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD143" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE143" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>877</v>
       </c>
@@ -16151,16 +15710,13 @@
         <v>79</v>
       </c>
       <c r="AC144" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD144" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE144" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>221</v>
       </c>
@@ -16242,14 +15798,11 @@
       <c r="AB145" t="s">
         <v>79</v>
       </c>
-      <c r="AC145" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE145" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD145" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>139</v>
       </c>
@@ -16329,16 +15882,13 @@
         <v>79</v>
       </c>
       <c r="AC146" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD146" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE146" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>63</v>
       </c>
@@ -16418,16 +15968,13 @@
         <v>72</v>
       </c>
       <c r="AC147" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD147" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE147" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>365</v>
       </c>
@@ -16498,16 +16045,13 @@
         <v>79</v>
       </c>
       <c r="AC148" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD148" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE148" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>741</v>
       </c>
@@ -16589,14 +16133,11 @@
       <c r="AB149" t="s">
         <v>79</v>
       </c>
-      <c r="AC149" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD149" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>600</v>
       </c>
@@ -16676,16 +16217,13 @@
         <v>79</v>
       </c>
       <c r="AC150" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD150" t="s">
         <v>950</v>
       </c>
-      <c r="AE150" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>367</v>
       </c>
@@ -16765,16 +16303,13 @@
         <v>79</v>
       </c>
       <c r="AC151" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD151" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>910</v>
       </c>
@@ -16851,16 +16386,13 @@
         <v>248</v>
       </c>
       <c r="AC152" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD152" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE152" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>677</v>
       </c>
@@ -16940,16 +16472,13 @@
         <v>79</v>
       </c>
       <c r="AC153" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD153" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE153" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>237</v>
       </c>
@@ -17029,16 +16558,13 @@
         <v>79</v>
       </c>
       <c r="AC154" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD154" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE154" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>542</v>
       </c>
@@ -17121,16 +16647,13 @@
         <v>79</v>
       </c>
       <c r="AC155" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD155" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE155" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>243</v>
       </c>
@@ -17210,16 +16733,13 @@
         <v>248</v>
       </c>
       <c r="AC156" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD156" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE156" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>496</v>
       </c>
@@ -17260,16 +16780,13 @@
         <v>359</v>
       </c>
       <c r="AC157" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD157" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE157" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>893</v>
       </c>
@@ -17310,16 +16827,13 @@
         <v>359</v>
       </c>
       <c r="AC158" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD158" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE158" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>603</v>
       </c>
@@ -17399,16 +16913,13 @@
         <v>79</v>
       </c>
       <c r="AC159" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD159" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE159" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>862</v>
       </c>
@@ -17488,16 +16999,13 @@
         <v>89</v>
       </c>
       <c r="AC160" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD160" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE160" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>507</v>
       </c>
@@ -17535,16 +17043,13 @@
         <v>119</v>
       </c>
       <c r="AC161" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD161" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE161" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>294</v>
       </c>
@@ -17624,16 +17129,13 @@
         <v>79</v>
       </c>
       <c r="AC162" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD162" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE162" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>470</v>
       </c>
@@ -17713,16 +17215,13 @@
         <v>79</v>
       </c>
       <c r="AC163" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD163" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE163" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>937</v>
       </c>
@@ -17736,16 +17235,13 @@
         <v>939</v>
       </c>
       <c r="AC164" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD164" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE164" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>665</v>
       </c>
@@ -17825,16 +17321,13 @@
         <v>79</v>
       </c>
       <c r="AC165" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD165" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE165" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="166" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>579</v>
       </c>
@@ -17914,16 +17407,13 @@
         <v>79</v>
       </c>
       <c r="AC166" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD166" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE166" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="167" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>539</v>
       </c>
@@ -17958,16 +17448,13 @@
         <v>119</v>
       </c>
       <c r="AC167" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD167" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE167" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="168" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>852</v>
       </c>
@@ -18047,16 +17534,13 @@
         <v>855</v>
       </c>
       <c r="AC168" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD168" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE168" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="169" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>533</v>
       </c>
@@ -18135,14 +17619,11 @@
       <c r="AB169" t="s">
         <v>79</v>
       </c>
-      <c r="AC169" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE169" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="170" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD169" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>404</v>
       </c>
@@ -18222,16 +17703,13 @@
         <v>407</v>
       </c>
       <c r="AC170" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD170" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE170" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="171" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>732</v>
       </c>
@@ -18302,16 +17780,13 @@
         <v>734</v>
       </c>
       <c r="AC171" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD171" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE171" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="172" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>273</v>
       </c>
@@ -18391,16 +17866,13 @@
         <v>79</v>
       </c>
       <c r="AC172" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD172" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE172" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="173" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>346</v>
       </c>
@@ -18480,16 +17952,13 @@
         <v>79</v>
       </c>
       <c r="AC173" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD173" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE173" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="174" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>699</v>
       </c>
@@ -18569,16 +18038,13 @@
         <v>79</v>
       </c>
       <c r="AC174" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD174" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE174" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="175" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>622</v>
       </c>
@@ -18652,16 +18118,13 @@
         <v>627</v>
       </c>
       <c r="AC175" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD175" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE175" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="176" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>379</v>
       </c>
@@ -18732,16 +18195,13 @@
         <v>79</v>
       </c>
       <c r="AC176" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD176" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE176" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="177" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>752</v>
       </c>
@@ -18821,16 +18281,13 @@
         <v>89</v>
       </c>
       <c r="AC177" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD177" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE177" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="178" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>73</v>
       </c>
@@ -18892,16 +18349,13 @@
         <v>79</v>
       </c>
       <c r="AC178" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD178" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE178" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="179" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
         <v>104</v>
       </c>
@@ -18927,16 +18381,13 @@
         <v>109</v>
       </c>
       <c r="AC179" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD179" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE179" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="180" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>750</v>
       </c>
@@ -19016,16 +18467,13 @@
         <v>407</v>
       </c>
       <c r="AC180" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD180" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE180" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="181" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>563</v>
       </c>
@@ -19105,16 +18553,13 @@
         <v>138</v>
       </c>
       <c r="AC181" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD181" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE181" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="182" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>218</v>
       </c>
@@ -19197,16 +18642,13 @@
         <v>79</v>
       </c>
       <c r="AC182" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD182" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE182" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="183" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>767</v>
       </c>
@@ -19238,16 +18680,13 @@
         <v>76</v>
       </c>
       <c r="AC183" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD183" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE183" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="184" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>798</v>
       </c>
@@ -19327,16 +18766,13 @@
         <v>89</v>
       </c>
       <c r="AC184" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD184" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE184" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="185" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>433</v>
       </c>
@@ -19389,16 +18825,13 @@
         <v>437</v>
       </c>
       <c r="AC185" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD185" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE185" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="186" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>610</v>
       </c>
@@ -19481,16 +18914,13 @@
         <v>89</v>
       </c>
       <c r="AC186" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD186" t="s">
         <v>950</v>
       </c>
-      <c r="AE186" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="187" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>353</v>
       </c>
@@ -19572,14 +19002,11 @@
       <c r="AB187" t="s">
         <v>79</v>
       </c>
-      <c r="AC187" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE187" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="188" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD187" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>337</v>
       </c>
@@ -19659,16 +19086,13 @@
         <v>79</v>
       </c>
       <c r="AC188" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD188" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE188" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="189" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>617</v>
       </c>
@@ -19727,16 +19151,13 @@
         <v>79</v>
       </c>
       <c r="AC189" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD189" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE189" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="190" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>946</v>
       </c>
@@ -19747,16 +19168,13 @@
         <v>945</v>
       </c>
       <c r="AC190" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD190" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE190" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="191" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>873</v>
       </c>
@@ -19838,14 +19256,11 @@
       <c r="AB191" t="s">
         <v>407</v>
       </c>
-      <c r="AC191" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE191" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="192" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD191" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>312</v>
       </c>
@@ -19928,16 +19343,13 @@
         <v>79</v>
       </c>
       <c r="AC192" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD192" t="s">
         <v>950</v>
       </c>
-      <c r="AE192" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>758</v>
       </c>
@@ -20017,16 +19429,13 @@
         <v>79</v>
       </c>
       <c r="AC193" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD193" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE193" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -20106,16 +19515,13 @@
         <v>397</v>
       </c>
       <c r="AC194" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD194" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE194" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>171</v>
       </c>
@@ -20198,16 +19604,13 @@
         <v>89</v>
       </c>
       <c r="AC195" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AD195" t="s">
         <v>950</v>
       </c>
-      <c r="AE195" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>476</v>
       </c>
@@ -20281,16 +19684,13 @@
         <v>437</v>
       </c>
       <c r="AC196" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD196" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE196" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="197" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>453</v>
       </c>
@@ -20372,14 +19772,11 @@
       <c r="AB197" t="s">
         <v>456</v>
       </c>
-      <c r="AC197" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE197" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="198" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD197" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>356</v>
       </c>
@@ -20420,16 +19817,13 @@
         <v>359</v>
       </c>
       <c r="AC198" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD198" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE198" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>340</v>
       </c>
@@ -20461,16 +19855,13 @@
         <v>76</v>
       </c>
       <c r="AC199" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD199" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE199" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="200" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>865</v>
       </c>
@@ -20553,16 +19944,13 @@
         <v>79</v>
       </c>
       <c r="AC200" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD200" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE200" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="201" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>709</v>
       </c>
@@ -20606,16 +19994,13 @@
         <v>79</v>
       </c>
       <c r="AC201" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD201" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE201" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="202" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>270</v>
       </c>
@@ -20695,16 +20080,13 @@
         <v>79</v>
       </c>
       <c r="AC202" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD202" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE202" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="203" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>814</v>
       </c>
@@ -20784,16 +20166,13 @@
         <v>817</v>
       </c>
       <c r="AC203" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD203" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE203" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="204" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>683</v>
       </c>
@@ -20873,16 +20252,13 @@
         <v>186</v>
       </c>
       <c r="AC204" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD204" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE204" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="205" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -20962,16 +20338,13 @@
         <v>79</v>
       </c>
       <c r="AC205" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD205" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE205" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="206" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>523</v>
       </c>
@@ -21051,16 +20424,13 @@
         <v>79</v>
       </c>
       <c r="AC206" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD206" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE206" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>776</v>
       </c>
@@ -21095,16 +20465,13 @@
         <v>162</v>
       </c>
       <c r="AC207" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD207" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE207" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>427</v>
       </c>
@@ -21184,16 +20551,13 @@
         <v>79</v>
       </c>
       <c r="AC208" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD208" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE208" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="209" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>613</v>
       </c>
@@ -21272,14 +20636,11 @@
       <c r="AB209" t="s">
         <v>89</v>
       </c>
-      <c r="AC209" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE209" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="210" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD209" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>661</v>
       </c>
@@ -21350,16 +20711,13 @@
         <v>302</v>
       </c>
       <c r="AC210" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD210" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE210" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="211" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>582</v>
       </c>
@@ -21441,14 +20799,11 @@
       <c r="AB211" t="s">
         <v>79</v>
       </c>
-      <c r="AC211" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE211" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="212" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD211" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>520</v>
       </c>
@@ -21531,16 +20886,13 @@
         <v>79</v>
       </c>
       <c r="AC212" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD212" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE212" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="213" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>689</v>
       </c>
@@ -21620,16 +20972,13 @@
         <v>79</v>
       </c>
       <c r="AC213" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD213" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE213" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="214" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>764</v>
       </c>
@@ -21709,16 +21058,13 @@
         <v>138</v>
       </c>
       <c r="AC214" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD214" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE214" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="215" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>389</v>
       </c>
@@ -21780,16 +21126,13 @@
         <v>393</v>
       </c>
       <c r="AC215" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD215" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE215" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="216" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>386</v>
       </c>
@@ -21869,16 +21212,13 @@
         <v>388</v>
       </c>
       <c r="AC216" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD216" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE216" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="217" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>549</v>
       </c>
@@ -21961,16 +21301,13 @@
         <v>552</v>
       </c>
       <c r="AC217" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD217" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE217" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="218" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>646</v>
       </c>
@@ -22050,16 +21387,13 @@
         <v>79</v>
       </c>
       <c r="AC218" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD218" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE218" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="219" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>810</v>
       </c>
@@ -22139,16 +21473,13 @@
         <v>79</v>
       </c>
       <c r="AC219" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD219" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE219" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="220" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>653</v>
       </c>
@@ -22228,16 +21559,13 @@
         <v>89</v>
       </c>
       <c r="AC220" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD220" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE220" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="221" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>727</v>
       </c>
@@ -22317,16 +21645,13 @@
         <v>729</v>
       </c>
       <c r="AC221" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD221" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE221" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="222" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>189</v>
       </c>
@@ -22409,16 +21734,13 @@
         <v>198</v>
       </c>
       <c r="AC222" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD222" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE222" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="223" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>498</v>
       </c>
@@ -22500,14 +21822,11 @@
       <c r="AB223" t="s">
         <v>79</v>
       </c>
-      <c r="AC223" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE223" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="224" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD223" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>628</v>
       </c>
@@ -22589,14 +21908,11 @@
       <c r="AB224" t="s">
         <v>79</v>
       </c>
-      <c r="AC224" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE224" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="225" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD224" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>573</v>
       </c>
@@ -22676,16 +21992,13 @@
         <v>138</v>
       </c>
       <c r="AC225" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD225" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE225" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="226" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>735</v>
       </c>
@@ -22732,16 +22045,13 @@
         <v>79</v>
       </c>
       <c r="AC226" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD226" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE226" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="227" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>738</v>
       </c>
@@ -22821,16 +22131,13 @@
         <v>79</v>
       </c>
       <c r="AC227" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD227" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE227" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="228" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>755</v>
       </c>
@@ -22910,16 +22217,13 @@
         <v>79</v>
       </c>
       <c r="AC228" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD228" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE228" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="229" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>869</v>
       </c>
@@ -22999,16 +22303,13 @@
         <v>872</v>
       </c>
       <c r="AC229" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD229" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE229" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="230" spans="1:31" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>545</v>
       </c>
@@ -23088,16 +22389,13 @@
         <v>548</v>
       </c>
       <c r="AC230" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD230" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE230" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="231" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>141</v>
       </c>
@@ -23177,16 +22475,13 @@
         <v>79</v>
       </c>
       <c r="AC231" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD231" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE231" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="232" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>571</v>
       </c>
@@ -23260,16 +22555,13 @@
         <v>302</v>
       </c>
       <c r="AC232" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD232" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE232" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="233" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>723</v>
       </c>
@@ -23340,16 +22632,13 @@
         <v>242</v>
       </c>
       <c r="AC233" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD233" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE233" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="234" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>113</v>
       </c>
@@ -23429,16 +22718,13 @@
         <v>79</v>
       </c>
       <c r="AC234" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD234" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE234" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="235" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>315</v>
       </c>
@@ -23521,16 +22807,13 @@
         <v>320</v>
       </c>
       <c r="AC235" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD235" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE235" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="236" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>903</v>
       </c>
@@ -23592,16 +22875,13 @@
         <v>79</v>
       </c>
       <c r="AC236" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD236" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE236" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="237" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>747</v>
       </c>
@@ -23681,16 +22961,13 @@
         <v>79</v>
       </c>
       <c r="AC237" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD237" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE237" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="238" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>398</v>
       </c>
@@ -23704,16 +22981,13 @@
         <v>95</v>
       </c>
       <c r="AC238" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD238" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE238" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="239" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>330</v>
       </c>
@@ -23727,16 +23001,13 @@
         <v>95</v>
       </c>
       <c r="AC239" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD239" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE239" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="240" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>102</v>
       </c>
@@ -23750,16 +23021,13 @@
         <v>95</v>
       </c>
       <c r="AC240" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD240" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE240" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="241" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>100</v>
       </c>
@@ -23773,16 +23041,13 @@
         <v>95</v>
       </c>
       <c r="AC241" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD241" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE241" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="242" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>847</v>
       </c>
@@ -23796,16 +23061,13 @@
         <v>95</v>
       </c>
       <c r="AC242" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD242" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE242" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="243" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>93</v>
       </c>
@@ -23819,16 +23081,13 @@
         <v>95</v>
       </c>
       <c r="AC243" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD243" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE243" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="244" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>875</v>
       </c>
@@ -23842,16 +23101,13 @@
         <v>95</v>
       </c>
       <c r="AC244" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD244" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE244" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="245" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>940</v>
       </c>
@@ -23859,16 +23115,13 @@
         <v>941</v>
       </c>
       <c r="AC245" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD245" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE245" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="246" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>932</v>
       </c>
@@ -23918,16 +23171,13 @@
         <v>45</v>
       </c>
       <c r="AC246" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD246" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE246" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="247" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>670</v>
       </c>
@@ -24009,14 +23259,11 @@
       <c r="AB247" t="s">
         <v>672</v>
       </c>
-      <c r="AC247" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE247" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="248" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD247" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>515</v>
       </c>
@@ -24057,16 +23304,13 @@
         <v>89</v>
       </c>
       <c r="AC248" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD248" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE248" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="249" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>721</v>
       </c>
@@ -24077,16 +23321,13 @@
         <v>722</v>
       </c>
       <c r="AC249" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD249" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE249" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="250" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>233</v>
       </c>
@@ -24166,16 +23407,13 @@
         <v>236</v>
       </c>
       <c r="AC250" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD250" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE250" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="251" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>824</v>
       </c>
@@ -24225,16 +23463,13 @@
         <v>46</v>
       </c>
       <c r="AC251" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD251" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE251" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="252" spans="1:31" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>588</v>
       </c>
@@ -24316,14 +23551,11 @@
       <c r="AB252" t="s">
         <v>407</v>
       </c>
-      <c r="AC252" t="s">
-        <v>949</v>
-      </c>
-      <c r="AE252" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="253" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD252" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>705</v>
       </c>
@@ -24403,13 +23635,10 @@
         <v>708</v>
       </c>
       <c r="AC253" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="AD253" t="s">
-        <v>953</v>
-      </c>
-      <c r="AE253" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -24656,7 +23885,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9347FD-6421-48B9-A780-C60525091A2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9347FD-6421-48B9-A780-C60525091A2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b370a6fa-a798-42e0-969d-19c284d8683f"/>
+    <ds:schemaRef ds:uri="62ca1376-8bea-4949-825e-fec085c3924e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
